--- a/data/data_study.xlsx
+++ b/data/data_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Bodyscan_variable_selection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECEEE8-9EBA-491A-9DA7-A46AB5A90A82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA407B-A965-4BCB-B447-74176A13FE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="43">
-  <si>
-    <t>ID</t>
-  </si>
   <si>
     <t>Sex</t>
   </si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Volume Belly (l)</t>
+  </si>
+  <si>
+    <t>Part_ID</t>
   </si>
 </sst>
 </file>
@@ -998,9 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,124 +1009,124 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1136,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>61</v>
@@ -1258,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>76</v>
@@ -1380,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>77</v>
@@ -1502,25 +1500,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -1529,73 +1527,73 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="1">
         <v>1.7050000000000001</v>
@@ -1624,25 +1622,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1746,25 +1744,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -1868,25 +1866,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
@@ -1990,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>75</v>
@@ -2014,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
         <v>182</v>
@@ -2112,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>74</v>
@@ -2234,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>49</v>
@@ -2356,7 +2354,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>67</v>
@@ -2478,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>62</v>
@@ -2600,7 +2598,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>90</v>
@@ -2722,7 +2720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>53</v>
@@ -2746,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1">
         <v>168.4</v>
@@ -2844,7 +2842,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
         <v>22</v>
@@ -2966,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>71</v>
@@ -3088,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>82</v>
@@ -3210,7 +3208,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>82</v>
@@ -3240,52 +3238,52 @@
         <v>170.9</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="1">
         <v>123.8</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB19" s="1">
         <v>44.4</v>
@@ -3300,31 +3298,31 @@
         <v>76.599999999999994</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -3332,7 +3330,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>70</v>
@@ -3454,7 +3452,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>54</v>
@@ -3576,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>58</v>
@@ -3600,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1">
         <v>153</v>
@@ -3698,7 +3696,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>28</v>
@@ -3820,7 +3818,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>78</v>
@@ -3942,7 +3940,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
         <v>40</v>
@@ -4064,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>59</v>
@@ -4186,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <v>69</v>
@@ -4308,7 +4306,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>67</v>
@@ -4430,7 +4428,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
         <v>80</v>
@@ -4552,7 +4550,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>84</v>
@@ -4674,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>63</v>
@@ -4796,7 +4794,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>81</v>
@@ -4820,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32" s="1">
         <v>160.30000000000001</v>
@@ -4918,7 +4916,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>24</v>
@@ -5040,7 +5038,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>69</v>
@@ -5162,7 +5160,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -5284,7 +5282,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>53</v>
@@ -5406,7 +5404,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>75</v>
@@ -5528,7 +5526,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>29</v>
@@ -5650,7 +5648,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>70</v>
@@ -5772,7 +5770,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>58</v>
@@ -5894,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>78</v>
@@ -6016,7 +6014,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <v>44</v>
@@ -6138,7 +6136,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <v>23</v>
@@ -6260,7 +6258,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>65</v>
@@ -6284,97 +6282,97 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
@@ -6382,7 +6380,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>61</v>
@@ -6478,25 +6476,25 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
@@ -6504,7 +6502,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
         <v>72</v>
@@ -6626,7 +6624,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1">
         <v>63</v>
@@ -6748,7 +6746,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>55</v>
@@ -6870,7 +6868,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>68</v>
@@ -6992,7 +6990,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
         <v>69</v>
@@ -7114,7 +7112,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
         <v>57</v>
@@ -7236,7 +7234,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
         <v>56</v>
@@ -7358,7 +7356,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
         <v>32</v>
@@ -7480,7 +7478,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
         <v>25</v>
@@ -7602,7 +7600,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1">
         <v>46</v>
@@ -7724,7 +7722,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1">
         <v>62</v>
@@ -7754,91 +7752,91 @@
         <v>173.2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE56" s="1">
         <v>72.599999999999994</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
@@ -7846,7 +7844,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -7968,7 +7966,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>25</v>
@@ -8090,7 +8088,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
         <v>68</v>
@@ -8212,7 +8210,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1">
         <v>49</v>
@@ -8334,7 +8332,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1">
         <v>46</v>
@@ -8456,7 +8454,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1">
         <v>58</v>
@@ -8578,7 +8576,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
         <v>76</v>
@@ -8602,7 +8600,7 @@
         <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63" s="1">
         <v>158</v>
@@ -8644,7 +8642,7 @@
         <v>54.4</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y63" s="1">
         <v>21.7</v>
@@ -8700,7 +8698,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1">
         <v>78</v>
@@ -8822,7 +8820,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" s="1">
         <v>47</v>
@@ -8944,25 +8942,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1">
         <v>77</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I66" s="1">
         <v>4</v>
@@ -9066,7 +9064,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1">
         <v>30</v>
@@ -9188,7 +9186,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1">
         <v>84</v>
@@ -9209,10 +9207,10 @@
         <v>3.53</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K68" s="1">
         <v>155.6</v>
@@ -9310,7 +9308,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1">
         <v>62</v>
@@ -9432,7 +9430,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1">
         <v>24</v>
@@ -9554,7 +9552,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
         <v>21</v>
@@ -9676,7 +9674,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
         <v>57</v>
@@ -9706,31 +9704,31 @@
         <v>180.8</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M72" s="1">
         <v>85.4</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U72">
         <v>104.1</v>
@@ -9766,31 +9764,31 @@
         <v>75.5</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.25">
@@ -9798,7 +9796,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>43</v>
@@ -9920,25 +9918,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1">
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
@@ -10042,7 +10040,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1">
         <v>70</v>
@@ -10164,7 +10162,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
         <v>20</v>
@@ -10286,7 +10284,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1">
         <v>28</v>
@@ -10408,7 +10406,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78" s="1">
         <v>28</v>
@@ -10530,7 +10528,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
         <v>58</v>
@@ -10652,7 +10650,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="1">
         <v>21</v>
@@ -10774,7 +10772,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
         <v>22</v>
@@ -10896,22 +10894,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1">
         <v>25</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1">
         <v>0.64</v>
@@ -11018,7 +11016,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1">
         <v>74</v>
@@ -11140,7 +11138,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" s="1">
         <v>50</v>
@@ -11262,7 +11260,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" s="1">
         <v>70</v>
@@ -11384,7 +11382,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="1">
         <v>87</v>
@@ -11495,10 +11493,10 @@
         <v>22.785</v>
       </c>
       <c r="AM86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.25">
@@ -11506,7 +11504,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1">
         <v>66</v>
@@ -11628,7 +11626,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="1">
         <v>61</v>
@@ -11750,7 +11748,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="1">
         <v>65</v>
@@ -11872,7 +11870,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1">
         <v>67</v>
@@ -11994,7 +11992,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1">
         <v>23</v>
@@ -12116,7 +12114,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1">
         <v>40</v>
@@ -12238,7 +12236,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1">
         <v>61</v>
@@ -12360,7 +12358,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1">
         <v>75</v>
@@ -12482,7 +12480,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1">
         <v>41</v>
@@ -12604,7 +12602,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C96" s="1">
         <v>72</v>
@@ -12726,7 +12724,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1">
         <v>72</v>
@@ -12848,7 +12846,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" s="1">
         <v>69</v>
@@ -12970,7 +12968,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1">
         <v>68</v>
@@ -13092,7 +13090,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1">
         <v>77</v>
@@ -13214,7 +13212,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C101" s="1">
         <v>73</v>
@@ -13336,7 +13334,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1">
         <v>59</v>
@@ -13458,7 +13456,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>94</v>
@@ -13482,7 +13480,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K103" s="1">
         <v>173.9</v>
@@ -13580,7 +13578,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1">
         <v>60</v>
@@ -13702,7 +13700,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" s="1">
         <v>24</v>
@@ -13824,7 +13822,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C106" s="1">
         <v>35</v>
@@ -13946,7 +13944,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" s="1">
         <v>66</v>
@@ -14068,7 +14066,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="1">
         <v>56</v>
@@ -14190,7 +14188,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="1">
         <v>67</v>
@@ -14312,7 +14310,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" s="1">
         <v>19</v>
@@ -14434,7 +14432,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="1">
         <v>59</v>
@@ -14556,7 +14554,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="1">
         <v>86</v>
@@ -14678,7 +14676,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C113" s="1">
         <v>54</v>
@@ -14800,7 +14798,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" s="1">
         <v>75</v>
@@ -14922,7 +14920,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1">
         <v>66</v>
@@ -15044,7 +15042,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" s="1">
         <v>71</v>
@@ -15166,7 +15164,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117" s="1">
         <v>65</v>
@@ -15288,7 +15286,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1">
         <v>79</v>
@@ -15318,10 +15316,10 @@
         <v>167.6</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N118" s="1">
         <v>118</v>
@@ -15336,73 +15334,73 @@
         <v>98.3</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE118" s="1">
         <v>67.599999999999994</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.25">
@@ -15410,7 +15408,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C119" s="1">
         <v>30</v>
@@ -15532,7 +15530,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" s="1">
         <v>18</v>
@@ -15654,7 +15652,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C121" s="1">
         <v>36</v>
@@ -15776,7 +15774,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C122" s="1">
         <v>70</v>
@@ -15898,7 +15896,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C123" s="1">
         <v>72</v>
@@ -16020,7 +16018,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1">
         <v>75</v>
@@ -16050,10 +16048,10 @@
         <v>162</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N124" s="1">
         <v>116.5</v>
@@ -16068,73 +16066,73 @@
         <v>96.1</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE124" s="1">
         <v>64.5</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.25">
@@ -16142,7 +16140,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" s="1">
         <v>19</v>
@@ -16264,7 +16262,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C126" s="1">
         <v>82</v>
@@ -16386,7 +16384,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C127" s="1">
         <v>40</v>
@@ -16508,7 +16506,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" s="1">
         <v>65</v>
@@ -16630,7 +16628,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1">
         <v>74</v>
@@ -16752,7 +16750,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>62</v>
@@ -16874,7 +16872,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C131" s="1">
         <v>76</v>
@@ -16996,7 +16994,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1">
         <v>28</v>
@@ -17118,7 +17116,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C133" s="1">
         <v>21</v>
@@ -17240,7 +17238,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
         <v>68</v>
@@ -17264,7 +17262,7 @@
         <v>3</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K134" s="1">
         <v>171.5</v>
@@ -17362,7 +17360,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C135" s="1">
         <v>67</v>
@@ -17484,7 +17482,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136" s="1">
         <v>56</v>
@@ -17514,7 +17512,7 @@
         <v>166.7</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M136" s="1">
         <v>79.099999999999994</v>
@@ -17532,13 +17530,13 @@
         <v>63</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U136">
         <v>105.5</v>
@@ -17547,16 +17545,16 @@
         <v>87.6</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA136" s="1">
         <v>58.9</v>
@@ -17574,10 +17572,10 @@
         <v>61.9</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH136" s="1">
         <v>1.429</v>
@@ -17606,7 +17604,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1">
         <v>71</v>
@@ -17728,7 +17726,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C138" s="1">
         <v>64</v>
@@ -17850,7 +17848,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C139" s="1">
         <v>42</v>
@@ -17972,7 +17970,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C140" s="1">
         <v>73</v>
@@ -18094,7 +18092,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C141" s="1">
         <v>69</v>
@@ -18216,7 +18214,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C142" s="1">
         <v>65</v>
@@ -18338,7 +18336,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C143" s="1">
         <v>65</v>
@@ -18460,7 +18458,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" s="1">
         <v>51</v>
@@ -18582,7 +18580,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" s="1">
         <v>77</v>
@@ -18704,7 +18702,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" s="1">
         <v>68</v>
@@ -18826,7 +18824,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C147" s="1">
         <v>25</v>
@@ -18948,7 +18946,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C148" s="1">
         <v>76</v>
@@ -19070,7 +19068,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C149" s="1">
         <v>52</v>
@@ -19192,7 +19190,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C150" s="1">
         <v>52</v>
@@ -19314,7 +19312,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" s="1">
         <v>34</v>
@@ -19436,7 +19434,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C152" s="1">
         <v>50</v>
@@ -19558,7 +19556,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" s="1">
         <v>70</v>
@@ -19582,7 +19580,7 @@
         <v>2</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K153" s="1">
         <v>160.30000000000001</v>
@@ -19680,7 +19678,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C154" s="1">
         <v>18</v>
@@ -19802,7 +19800,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155" s="1">
         <v>57</v>
@@ -19924,7 +19922,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" s="1">
         <v>37</v>
@@ -20046,7 +20044,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C157" s="1">
         <v>74</v>
@@ -20168,7 +20166,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C158" s="1">
         <v>73</v>
@@ -20290,7 +20288,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C159" s="1">
         <v>47</v>
@@ -20386,25 +20384,25 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="AH159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.25">
@@ -20412,7 +20410,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C160" s="1">
         <v>62</v>
@@ -20436,7 +20434,7 @@
         <v>3</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K160" s="1">
         <v>158</v>
@@ -20534,7 +20532,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C161" s="1">
         <v>74</v>
@@ -20656,7 +20654,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C162" s="1">
         <v>54</v>
@@ -20778,7 +20776,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C163" s="1">
         <v>44</v>
@@ -20900,7 +20898,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C164" s="1">
         <v>52</v>
@@ -21022,7 +21020,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C165" s="1">
         <v>67</v>
@@ -21144,7 +21142,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C166" s="1">
         <v>46</v>
@@ -21266,7 +21264,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C167" s="1">
         <v>47</v>
@@ -21388,7 +21386,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C168" s="1">
         <v>18</v>
@@ -21510,7 +21508,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C169" s="1">
         <v>31</v>
@@ -21632,7 +21630,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C170" s="1">
         <v>57</v>
@@ -21754,7 +21752,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C171" s="1">
         <v>46</v>
@@ -21876,7 +21874,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C172" s="1">
         <v>50</v>
@@ -21998,7 +21996,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C173" s="1">
         <v>68</v>
@@ -22022,7 +22020,7 @@
         <v>3</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K173" s="1">
         <v>177.6</v>
@@ -22120,7 +22118,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C174" s="1">
         <v>64</v>
@@ -22242,7 +22240,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C175" s="1">
         <v>60</v>
@@ -22364,7 +22362,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C176" s="1">
         <v>45</v>
@@ -22486,7 +22484,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C177" s="1">
         <v>54</v>
@@ -22608,31 +22606,31 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C178" s="1">
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K178" s="1">
         <v>165.9</v>
@@ -22730,7 +22728,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C179" s="1">
         <v>53</v>
@@ -22852,7 +22850,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C180" s="1">
         <v>58</v>
@@ -22974,7 +22972,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C181" s="1">
         <v>46</v>
@@ -23096,7 +23094,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C182" s="1">
         <v>45</v>
@@ -23218,7 +23216,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C183" s="1">
         <v>26</v>
@@ -23340,7 +23338,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C184" s="1">
         <v>53</v>
@@ -23462,7 +23460,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C185" s="1">
         <v>82</v>
@@ -23584,7 +23582,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C186" s="1">
         <v>52</v>
@@ -23706,7 +23704,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C187" s="1">
         <v>50</v>
@@ -23828,7 +23826,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C188" s="1">
         <v>70</v>
@@ -23950,7 +23948,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C189" s="1">
         <v>67</v>
@@ -24072,7 +24070,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C190" s="1">
         <v>43</v>
@@ -24194,7 +24192,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C191" s="1">
         <v>24</v>
@@ -24316,7 +24314,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C192" s="1">
         <v>26</v>
@@ -24438,7 +24436,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C193" s="1">
         <v>28</v>
@@ -24560,7 +24558,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C194" s="1">
         <v>58</v>
@@ -24682,7 +24680,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C195" s="1">
         <v>63</v>
@@ -24804,7 +24802,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C196" s="1">
         <v>71</v>
@@ -24926,7 +24924,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C197" s="1">
         <v>62</v>
@@ -25048,7 +25046,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C198" s="1">
         <v>56</v>
@@ -25170,7 +25168,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C199" s="1">
         <v>41</v>
@@ -25292,7 +25290,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C200" s="1">
         <v>67</v>
@@ -25414,7 +25412,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C201" s="1">
         <v>22</v>
@@ -25536,7 +25534,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C202" s="1">
         <v>20</v>
@@ -25658,7 +25656,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C203" s="1">
         <v>67</v>
@@ -25780,7 +25778,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C204" s="1">
         <v>28</v>
@@ -25902,7 +25900,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C205" s="1">
         <v>66</v>
@@ -25932,10 +25930,10 @@
         <v>176.9</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N205" s="1">
         <v>128.9</v>
@@ -25950,52 +25948,52 @@
         <v>111.5</v>
       </c>
       <c r="R205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE205" s="1">
         <v>81.2</v>
       </c>
       <c r="AF205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH205" s="1">
         <v>1.772</v>
@@ -26024,7 +26022,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C206" s="1">
         <v>78</v>
@@ -26146,7 +26144,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C207" s="1">
         <v>81</v>
@@ -26268,7 +26266,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C208" s="1">
         <v>71</v>
@@ -26289,10 +26287,10 @@
         <v>1.47</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K208" s="1">
         <v>162</v>
@@ -26390,7 +26388,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C209" s="1">
         <v>59</v>
@@ -26512,7 +26510,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C210" s="1">
         <v>19</v>
@@ -26634,7 +26632,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C211" s="1">
         <v>55</v>
@@ -26756,7 +26754,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C212" s="1">
         <v>20</v>
@@ -26878,7 +26876,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C213" s="1">
         <v>61</v>
@@ -26902,7 +26900,7 @@
         <v>3</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K213" s="1">
         <v>167.6</v>
@@ -27000,7 +26998,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C214" s="1">
         <v>20</v>
@@ -27122,7 +27120,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C215" s="1">
         <v>71</v>
@@ -27244,7 +27242,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C216" s="1">
         <v>36</v>
@@ -27366,7 +27364,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C217" s="1">
         <v>51</v>
@@ -27488,7 +27486,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C218" s="1">
         <v>53</v>
@@ -27610,7 +27608,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C219" s="1">
         <v>69</v>
@@ -27732,7 +27730,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C220" s="1">
         <v>68</v>
@@ -27854,7 +27852,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C221" s="1">
         <v>58</v>
@@ -27976,7 +27974,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C222" s="1">
         <v>57</v>
@@ -28098,7 +28096,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C223" s="1">
         <v>46</v>
@@ -28122,7 +28120,7 @@
         <v>3</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K223" s="1">
         <v>159.6</v>
@@ -28220,7 +28218,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C224" s="1">
         <v>35</v>
@@ -28342,7 +28340,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C225" s="1">
         <v>74</v>
@@ -28464,7 +28462,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C226" s="1">
         <v>51</v>
@@ -28586,7 +28584,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C227" s="1">
         <v>21</v>
@@ -28708,7 +28706,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C228" s="1">
         <v>56</v>
@@ -28830,7 +28828,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C229" s="1">
         <v>58</v>
@@ -28952,7 +28950,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C230" s="1">
         <v>30</v>
@@ -29074,7 +29072,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C231" s="1">
         <v>75</v>
@@ -29196,7 +29194,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C232" s="1">
         <v>55</v>
@@ -29318,7 +29316,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C233" s="1">
         <v>34</v>
@@ -29440,7 +29438,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C234" s="1">
         <v>21</v>
@@ -29562,7 +29560,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C235" s="1">
         <v>20</v>
@@ -29684,7 +29682,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C236" s="1">
         <v>21</v>
@@ -29806,7 +29804,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C237" s="1">
         <v>24</v>
@@ -29928,7 +29926,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C238" s="1">
         <v>23</v>
@@ -30050,7 +30048,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C239" s="1">
         <v>22</v>
@@ -30172,7 +30170,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C240" s="1">
         <v>52</v>
@@ -30294,7 +30292,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C241" s="1">
         <v>43</v>
@@ -30416,7 +30414,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C242" s="1">
         <v>50</v>
@@ -30538,7 +30536,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C243" s="1">
         <v>32</v>

--- a/data/data_study.xlsx
+++ b/data/data_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Bodyscan_variable_selection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA407B-A965-4BCB-B447-74176A13FE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F0ED3-FB48-4246-BEDA-ACEB5FA2053E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>Volume Belly (l)</t>
   </si>
   <si>
-    <t>Part_ID</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
